--- a/BackTest/2019-10-31 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-31 BackTest LAMB.xlsx
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -17601,14 +17601,20 @@
         <v>46.06666666666667</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>46</v>
+      </c>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17643,7 +17649,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17671,14 +17681,20 @@
         <v>46.13333333333335</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>46.7</v>
+      </c>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17713,7 +17729,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17741,14 +17761,20 @@
         <v>45.86666666666667</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>45.6</v>
+      </c>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17783,7 +17809,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -17811,14 +17841,20 @@
         <v>45.93333333333334</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>45.8</v>
+      </c>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -17854,10 +17890,12 @@
       <c r="J499" t="n">
         <v>45.5</v>
       </c>
-      <c r="K499" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -17893,12 +17931,10 @@
       <c r="J500" t="n">
         <v>45.5</v>
       </c>
-      <c r="K500" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M500" t="n">
@@ -17934,11 +17970,9 @@
         <v>0</v>
       </c>
       <c r="J501" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="K501" t="n">
-        <v>45.5</v>
-      </c>
+        <v>45.6</v>
+      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17977,11 +18011,9 @@
         <v>0</v>
       </c>
       <c r="J502" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="K502" t="n">
-        <v>45.5</v>
-      </c>
+        <v>45.4</v>
+      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18020,11 +18052,9 @@
         <v>0</v>
       </c>
       <c r="J503" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K503" t="n">
         <v>45.5</v>
       </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18057,17 +18087,13 @@
         <v>45.36666666666667</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>45</v>
-      </c>
-      <c r="K504" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18100,17 +18126,13 @@
         <v>45.90000000000001</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K505" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18143,17 +18165,13 @@
         <v>46.06666666666667</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="K506" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18186,17 +18204,13 @@
         <v>46.10000000000002</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="K507" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18229,17 +18243,13 @@
         <v>45.56666666666668</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="K508" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18272,17 +18282,13 @@
         <v>45.60000000000002</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K509" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18315,17 +18321,13 @@
         <v>45.60000000000002</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="K510" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18358,17 +18360,13 @@
         <v>45.66666666666669</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K511" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18401,17 +18399,13 @@
         <v>45.66666666666669</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K512" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18444,17 +18438,13 @@
         <v>45.8666666666667</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="K513" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18487,17 +18477,13 @@
         <v>46.00000000000002</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K514" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18530,17 +18516,13 @@
         <v>46.16666666666669</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="K515" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18573,17 +18555,13 @@
         <v>46.10000000000002</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K516" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18616,17 +18594,13 @@
         <v>45.93333333333336</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K517" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18659,17 +18633,13 @@
         <v>45.93333333333336</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K518" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18702,17 +18672,13 @@
         <v>45.93333333333336</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
       </c>
-      <c r="J519" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="K519" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18745,17 +18711,13 @@
         <v>46.10000000000002</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="n">
-        <v>46</v>
-      </c>
-      <c r="K520" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18788,17 +18750,13 @@
         <v>46.10000000000002</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="K521" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18831,17 +18789,13 @@
         <v>46.00000000000003</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="K522" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18874,17 +18828,13 @@
         <v>45.90000000000003</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K523" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18917,17 +18867,13 @@
         <v>45.80000000000002</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="K524" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18960,17 +18906,13 @@
         <v>45.83333333333335</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>46</v>
-      </c>
-      <c r="K525" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19003,17 +18945,13 @@
         <v>45.96666666666668</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K526" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19046,17 +18984,13 @@
         <v>46.33333333333335</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="K527" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19089,17 +19023,13 @@
         <v>46.50000000000002</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="K528" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19132,17 +19062,13 @@
         <v>46.60000000000002</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="K529" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19175,17 +19101,13 @@
         <v>46.13333333333335</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="K530" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19218,17 +19140,13 @@
         <v>46.13333333333335</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K531" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19261,17 +19179,13 @@
         <v>45.93333333333336</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K532" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19304,17 +19218,13 @@
         <v>46.06666666666669</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K533" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19347,17 +19257,13 @@
         <v>45.90000000000003</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K534" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19390,17 +19296,13 @@
         <v>46.03333333333335</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="K535" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19433,17 +19335,13 @@
         <v>46.03333333333335</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K536" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19476,17 +19374,13 @@
         <v>46.03333333333335</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K537" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19519,17 +19413,13 @@
         <v>46.03333333333334</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="K538" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19562,17 +19452,13 @@
         <v>46.20000000000001</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K539" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19605,17 +19491,13 @@
         <v>46.23333333333334</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="n">
-        <v>46</v>
-      </c>
-      <c r="K540" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19648,17 +19530,13 @@
         <v>46.36666666666667</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
-      <c r="J541" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="K541" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19691,17 +19569,13 @@
         <v>46.53333333333334</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="K542" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19734,17 +19608,13 @@
         <v>46.83333333333334</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="K543" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19777,17 +19647,13 @@
         <v>46.96666666666668</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
-      <c r="J544" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="K544" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19820,17 +19686,13 @@
         <v>47.13333333333335</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K545" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19869,9 +19731,7 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19910,9 +19770,7 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19951,9 +19809,7 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19992,9 +19848,7 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20033,9 +19887,7 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20074,9 +19926,7 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20115,9 +19965,7 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20156,9 +20004,7 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20197,9 +20043,7 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20238,9 +20082,7 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20279,9 +20121,7 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20320,9 +20160,7 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20361,9 +20199,7 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20402,9 +20238,7 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20443,9 +20277,7 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20484,9 +20316,7 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20525,9 +20355,7 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20566,9 +20394,7 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20607,9 +20433,7 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20648,9 +20472,7 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20689,9 +20511,7 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20730,9 +20550,7 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20771,9 +20589,7 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20812,9 +20628,7 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20853,9 +20667,7 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20894,9 +20706,7 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20935,9 +20745,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20976,9 +20784,7 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21017,9 +20823,7 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21058,9 +20862,7 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21099,9 +20901,7 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21140,9 +20940,7 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21181,9 +20979,7 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21222,9 +21018,7 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21263,9 +21057,7 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21304,9 +21096,7 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21345,9 +21135,7 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21386,9 +21174,7 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21427,9 +21213,7 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21468,9 +21252,7 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21509,9 +21291,7 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21550,9 +21330,7 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21591,9 +21369,7 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21632,9 +21408,7 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21670,19 +21444,17 @@
         <v>0</v>
       </c>
       <c r="I590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="n">
-        <v>45.5</v>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>1.054340659340659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -21711,11 +21483,15 @@
         <v>0</v>
       </c>
       <c r="I591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21746,11 +21522,15 @@
         <v>0</v>
       </c>
       <c r="I592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21785,7 +21565,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21820,7 +21604,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21855,7 +21643,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21890,7 +21682,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21925,7 +21721,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21960,7 +21760,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21995,7 +21799,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22030,7 +21838,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22065,7 +21877,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22100,7 +21916,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22135,7 +21955,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22170,7 +21994,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22205,7 +22033,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22240,7 +22072,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22275,7 +22111,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22310,7 +22150,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22345,7 +22189,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22380,7 +22228,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22415,7 +22267,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22450,7 +22306,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22485,7 +22345,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22520,7 +22384,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22555,7 +22423,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22590,7 +22462,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22625,7 +22501,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22660,7 +22540,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22695,7 +22579,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22730,7 +22618,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22765,7 +22657,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22800,7 +22696,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22835,7 +22735,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22870,7 +22774,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22905,7 +22813,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22940,7 +22852,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22975,7 +22891,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23010,7 +22930,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23045,7 +22969,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23080,7 +23008,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23115,7 +23047,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23150,7 +23086,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23185,7 +23125,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23220,7 +23164,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23255,7 +23203,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23290,7 +23242,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23325,7 +23281,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23360,7 +23320,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23395,7 +23359,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23430,7 +23398,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23465,7 +23437,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23500,7 +23476,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-31 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-31 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-994682.3405</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,14 +550,10 @@
         <v>-773253.4912</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>45.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -590,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -626,19 +616,11 @@
         <v>-716424.4357</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -2548,7 +2530,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2563,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2596,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4429,7 +4411,7 @@
         <v>-1981338.816686338</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4444,7 @@
         <v>-2626318.203786338</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4495,7 +4477,7 @@
         <v>-2524126.234186338</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4561,7 +4543,7 @@
         <v>-2407783.697115023</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4594,7 +4576,7 @@
         <v>-2475327.24970457</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4990,7 +4972,7 @@
         <v>-1600415.323266444</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5155,7 +5137,7 @@
         <v>-1558786.632366444</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5551,7 +5533,7 @@
         <v>-1773453.003666444</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5584,7 +5566,7 @@
         <v>-1710749.906966444</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5617,7 +5599,7 @@
         <v>-1737358.141066444</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5650,7 +5632,7 @@
         <v>-1818279.198766444</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5683,7 +5665,7 @@
         <v>-1777563.313866444</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5749,7 +5731,7 @@
         <v>-1758225.634666444</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5782,7 +5764,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5815,7 +5797,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5848,7 +5830,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5881,7 +5863,7 @@
         <v>-1664210.620566444</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5914,7 +5896,7 @@
         <v>-1599652.967566444</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5947,7 +5929,7 @@
         <v>-1601622.763166444</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5980,7 +5962,7 @@
         <v>-1603109.551266444</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6013,7 +5995,7 @@
         <v>-1686633.034166444</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6046,7 +6028,7 @@
         <v>-1727321.949166444</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6079,7 +6061,7 @@
         <v>-1864518.212666444</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6112,7 +6094,7 @@
         <v>-1835780.406666443</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6145,7 +6127,7 @@
         <v>-1956663.083866443</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6178,7 +6160,7 @@
         <v>-2176250.072826682</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6211,7 +6193,7 @@
         <v>-2111723.457326682</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6244,7 +6226,7 @@
         <v>-2135157.328026682</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6277,7 +6259,7 @@
         <v>-2311770.135726682</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6310,7 +6292,7 @@
         <v>-2263467.14230985</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6343,7 +6325,7 @@
         <v>-2263467.14230985</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6376,7 +6358,7 @@
         <v>-2302767.14230985</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6409,7 +6391,7 @@
         <v>-2196130.07230985</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6442,7 +6424,7 @@
         <v>-2252626.60040985</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6475,7 +6457,7 @@
         <v>-2226602.78000985</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6508,7 +6490,7 @@
         <v>-2239580.340509851</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6541,7 +6523,7 @@
         <v>-2287948.704509851</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6574,7 +6556,7 @@
         <v>-2408957.247509851</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6607,7 +6589,7 @@
         <v>-2394317.374778575</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6640,7 +6622,7 @@
         <v>-2129966.785078575</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6673,7 +6655,7 @@
         <v>-2134566.785078575</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6706,7 +6688,7 @@
         <v>-2134566.785078575</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6739,7 +6721,7 @@
         <v>-2134566.785078575</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6871,7 +6853,7 @@
         <v>-2175461.409678575</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6904,7 +6886,7 @@
         <v>-2031289.193578575</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8752,7 +8734,7 @@
         <v>-1995456.935703064</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8785,7 +8767,7 @@
         <v>-2037871.211603064</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8818,7 +8800,7 @@
         <v>-2037871.211603064</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8851,7 +8833,7 @@
         <v>-2108196.368903064</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8884,7 +8866,7 @@
         <v>-2017611.241703064</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8917,7 +8899,7 @@
         <v>-2018611.241703064</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8950,7 +8932,7 @@
         <v>-2021243.915203064</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9049,7 +9031,7 @@
         <v>-1999197.294603064</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9115,7 +9097,7 @@
         <v>-1952157.751503064</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9181,7 +9163,7 @@
         <v>-1980027.577203064</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9214,7 +9196,7 @@
         <v>-2111773.909103064</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -11326,7 +11308,7 @@
         <v>-2282105.438303065</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11359,7 +11341,7 @@
         <v>-2281961.625603064</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11392,7 +11374,7 @@
         <v>-2296864.309403065</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11425,7 +11407,7 @@
         <v>-2241758.371903065</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11458,7 +11440,7 @@
         <v>-2241758.371903065</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11491,7 +11473,7 @@
         <v>-2241758.371903065</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11524,7 +11506,7 @@
         <v>-2242190.070903065</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11557,7 +11539,7 @@
         <v>-2211908.177503065</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13306,7 +13288,7 @@
         <v>-2198852.028828381</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13471,7 +13453,7 @@
         <v>-2190729.40531332</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13504,7 +13486,7 @@
         <v>-2194719.71451332</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13537,7 +13519,7 @@
         <v>-2193719.71451332</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13570,7 +13552,7 @@
         <v>-2183719.71451332</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13603,7 +13585,7 @@
         <v>-2183719.71451332</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13636,7 +13618,7 @@
         <v>-2178719.71451332</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13669,7 +13651,7 @@
         <v>-2220419.71451332</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13702,7 +13684,7 @@
         <v>-2252915.101513321</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13735,7 +13717,7 @@
         <v>-2252915.101513321</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13768,7 +13750,7 @@
         <v>-2252915.101513321</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13801,7 +13783,7 @@
         <v>-2252915.101513321</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13834,7 +13816,7 @@
         <v>-2252083.40531332</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13867,7 +13849,7 @@
         <v>-2245940.943913321</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13900,7 +13882,7 @@
         <v>-2303559.84091332</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13933,7 +13915,7 @@
         <v>-2303559.84091332</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13966,7 +13948,7 @@
         <v>-2299237.753837273</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13999,7 +13981,7 @@
         <v>-2299237.753837273</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14032,7 +14014,7 @@
         <v>-2340839.308837273</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14065,7 +14047,7 @@
         <v>-2340839.308837273</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14098,7 +14080,7 @@
         <v>-2316709.743837273</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14131,7 +14113,7 @@
         <v>-2316709.743837273</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14263,7 +14245,7 @@
         <v>-2279557.994637273</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14296,7 +14278,7 @@
         <v>-2251572.727237273</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14362,7 +14344,7 @@
         <v>-2282153.641437273</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14395,7 +14377,7 @@
         <v>-2282153.641437273</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14428,7 +14410,7 @@
         <v>-2282153.641437273</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14461,7 +14443,7 @@
         <v>-2283715.668337273</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14494,7 +14476,7 @@
         <v>-2283715.668337273</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14527,7 +14509,7 @@
         <v>-2283715.668337273</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -17629,10 +17611,14 @@
         <v>-2911010.235727146</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="J522" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
@@ -17665,8 +17651,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17698,8 +17690,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17731,8 +17729,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17764,8 +17768,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17797,8 +17807,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17830,8 +17846,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17863,8 +17885,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17893,11 +17921,19 @@
         <v>-3104516.017927147</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="J530" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17926,11 +17962,19 @@
         <v>-3104516.017927147</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J531" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17959,11 +18003,19 @@
         <v>-3104516.017927147</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J532" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17992,11 +18044,19 @@
         <v>-3208061.380727147</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J533" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18025,11 +18085,19 @@
         <v>-3208061.380727147</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>47</v>
+      </c>
+      <c r="J534" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18058,11 +18126,19 @@
         <v>-3208061.380727147</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>47</v>
+      </c>
+      <c r="J535" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18094,8 +18170,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18127,8 +18209,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18160,8 +18248,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18193,8 +18287,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18226,8 +18326,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18259,8 +18365,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18289,11 +18401,19 @@
         <v>-3378177.388927146</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J542" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18322,11 +18442,19 @@
         <v>-3376024.388927146</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J543" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18355,11 +18483,19 @@
         <v>-3416998.306027147</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J544" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18388,11 +18524,19 @@
         <v>-3520720.429427146</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J545" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18421,11 +18565,19 @@
         <v>-3594562.512827146</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="J546" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18454,11 +18606,19 @@
         <v>-3557328.054627146</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J547" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18487,11 +18647,19 @@
         <v>-3557328.054627146</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J548" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18520,11 +18688,19 @@
         <v>-3549703.348827146</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J549" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18553,11 +18729,19 @@
         <v>-3549703.348827146</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>46</v>
+      </c>
+      <c r="J550" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18586,11 +18770,19 @@
         <v>-3468938.520727146</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>46</v>
+      </c>
+      <c r="J551" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18619,11 +18811,19 @@
         <v>-3351921.148727146</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="J552" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18652,11 +18852,19 @@
         <v>-3534722.039527146</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J553" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18685,11 +18893,19 @@
         <v>-3322048.847427146</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J554" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18718,11 +18934,19 @@
         <v>-3319259.847427146</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J555" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18751,11 +18975,19 @@
         <v>-3320560.180227146</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J556" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18784,11 +19016,19 @@
         <v>-3386569.844227146</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="J557" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18817,11 +19057,19 @@
         <v>-3386569.844227146</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J558" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18850,11 +19098,19 @@
         <v>-3334234.960527146</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J559" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18883,11 +19139,19 @@
         <v>-3344954.272827146</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J560" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18916,11 +19180,19 @@
         <v>-3149280.234327146</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J561" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18949,11 +19221,19 @@
         <v>-3188914.431127146</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J562" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18982,11 +19262,19 @@
         <v>-3096995.674827146</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>45</v>
+      </c>
+      <c r="J563" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19015,11 +19303,19 @@
         <v>-3055644.935027146</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J564" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19048,11 +19344,19 @@
         <v>-3094800.306127146</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J565" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19081,11 +19385,19 @@
         <v>-3039206.833927146</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J566" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19114,11 +19426,19 @@
         <v>-3039862.809927145</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="J567" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19147,11 +19467,19 @@
         <v>-3006800.245427146</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J568" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19180,11 +19508,19 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J569" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19213,11 +19549,19 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="J570" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19246,11 +19590,19 @@
         <v>-3095963.499127146</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="J571" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19279,11 +19631,19 @@
         <v>-3028126.431227146</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J572" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19312,11 +19672,19 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J573" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19345,11 +19713,19 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J574" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19378,11 +19754,19 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J575" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19411,15 +19795,17 @@
         <v>-3048207.708227146</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>46.1</v>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L576" t="n">
@@ -19450,12 +19836,14 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>45.6</v>
       </c>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19489,12 +19877,14 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>46.1</v>
       </c>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19528,12 +19918,14 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>46.1</v>
       </c>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19567,12 +19959,14 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>46.1</v>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19606,10 +20000,14 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J581" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19643,10 +20041,14 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="J582" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19683,7 +20085,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19717,10 +20121,14 @@
         <v>-2959014.360027147</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="J584" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19757,7 +20165,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19794,7 +20204,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19831,7 +20243,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19868,7 +20282,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19905,7 +20321,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19942,7 +20360,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19979,7 +20399,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20016,7 +20438,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20053,7 +20477,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20090,7 +20516,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20127,7 +20555,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20161,12 +20591,14 @@
         <v>-3077283.383027147</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>45.9</v>
       </c>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20200,12 +20632,14 @@
         <v>-3002935.872127146</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I597" t="n">
         <v>45.9</v>
       </c>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20239,12 +20673,14 @@
         <v>-2979628.28592025</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>46.3</v>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20281,7 +20717,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20315,10 +20753,14 @@
         <v>-2979852.01342025</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>46</v>
+      </c>
+      <c r="J600" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20352,10 +20794,14 @@
         <v>-2919021.01342025</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J601" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20392,7 +20838,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20429,7 +20877,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20466,7 +20916,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20503,7 +20955,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20540,7 +20994,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20577,7 +21033,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20614,7 +21072,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20651,7 +21111,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20688,7 +21150,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20725,7 +21189,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20762,7 +21228,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20799,7 +21267,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20836,7 +21306,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20873,7 +21345,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20910,7 +21384,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20947,7 +21423,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20984,7 +21462,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21021,7 +21501,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21058,7 +21540,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21095,7 +21579,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21132,7 +21618,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21169,7 +21657,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21206,7 +21696,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21243,7 +21735,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21280,7 +21774,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21317,7 +21813,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21354,7 +21852,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21391,7 +21891,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21428,7 +21930,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21465,7 +21969,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21502,7 +22008,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21536,10 +22044,14 @@
         <v>-2870813.84032025</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J633" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21576,7 +22088,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21613,7 +22127,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21650,7 +22166,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21687,7 +22205,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21724,7 +22244,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21761,7 +22283,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21798,7 +22322,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21835,7 +22361,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21872,7 +22400,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21909,7 +22439,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21946,7 +22478,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21983,7 +22517,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22020,7 +22556,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22057,7 +22595,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22094,7 +22634,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22131,7 +22673,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22168,7 +22712,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22205,7 +22751,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22242,7 +22790,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22279,7 +22829,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22316,7 +22868,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22353,7 +22907,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22390,7 +22946,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22427,7 +22985,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22464,7 +23024,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22501,7 +23063,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22538,7 +23102,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22575,7 +23141,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22612,7 +23180,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22649,7 +23219,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22686,7 +23258,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22723,7 +23297,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22760,7 +23336,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22797,7 +23375,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22834,7 +23414,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22871,7 +23453,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22908,7 +23492,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22945,7 +23531,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22982,7 +23570,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23019,7 +23609,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23056,7 +23648,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23093,7 +23687,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23130,7 +23726,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23167,7 +23765,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23204,7 +23804,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23241,7 +23843,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23275,10 +23879,14 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J680" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23312,10 +23920,14 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J681" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23349,10 +23961,14 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J682" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23386,10 +24002,14 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J683" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23423,10 +24043,14 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J684" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23460,10 +24084,14 @@
         <v>-2893231.139080379</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J685" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23497,10 +24125,14 @@
         <v>-2881334.718880379</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J686" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23534,10 +24166,14 @@
         <v>-2881334.718880379</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>47</v>
+      </c>
+      <c r="J687" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23571,10 +24207,14 @@
         <v>-2871334.718880379</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>47</v>
+      </c>
+      <c r="J688" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23611,7 +24251,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23648,7 +24290,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23685,7 +24329,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23722,7 +24368,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23759,7 +24407,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23796,7 +24446,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23833,7 +24485,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23870,7 +24524,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23907,7 +24563,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23941,10 +24599,14 @@
         <v>-2890991.228480379</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J698" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23981,7 +24643,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24018,7 +24682,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24055,7 +24721,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24092,7 +24760,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24129,7 +24799,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24166,7 +24838,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24203,7 +24877,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24240,7 +24916,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24277,7 +24955,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24314,7 +24994,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24351,7 +25033,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24388,7 +25072,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24425,7 +25111,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>47.3</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24437,6 +25125,6 @@
       <c r="M711" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-31 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1870,7 +1870,7 @@
         <v>-2324742.199207677</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2325242.199207677</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2187372.427207677</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2384652.874132167</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3023828.379432166</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2941694.009232166</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2956863.847632166</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2946256.539332166</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3022852.067732166</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2429884.284732167</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1744017.294659882</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1687497.136659882</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1969091.718859882</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1969091.718859882</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2006237.014959882</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1936432.642626893</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1936432.642626893</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1939788.460014418</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1988798.808514418</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1952127.942714418</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1862024.860214418</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1821424.860214418</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1801544.043896051</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2635344.278496051</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2717387.277696051</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2874097.712296051</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3127377.925396051</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3127377.925396051</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3113716.293396051</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3143494.482296051</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3143494.482296051</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-2751703.13539605</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2736009.56869605</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1700052.057154054</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2361809.96150457</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1773453.003666444</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1710749.906966444</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1737358.141066444</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1818279.198766444</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1777563.313866444</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1758225.634666444</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1664210.620566444</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1599652.967566444</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1601622.763166444</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1603109.551266444</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1686633.034166444</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1727321.949166444</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1864518.212666444</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1835780.406666443</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1956663.083866443</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2176250.072826682</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2111723.457326682</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2135157.328026682</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2311770.135726682</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2263467.14230985</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2263467.14230985</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2302767.14230985</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2196130.07230985</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2252626.60040985</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2226602.78000985</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2239580.340509851</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2287948.704509851</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2408957.247509851</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2394317.374778575</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2129966.785078575</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2134566.785078575</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2134566.785078575</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2416005.941503065</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2438110.654103065</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2414788.408803065</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2412131.776603065</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2414631.776603065</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2414631.776603065</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2425372.868403065</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2396607.832403066</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2400137.832403066</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2400137.832403066</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-2410670.457503065</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-2415687.347503065</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-2416083.048503065</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2416073.048503065</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-2139114.229628381</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-2139114.229628381</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-2181407.609928381</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-2187547.625528381</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -17611,14 +17611,10 @@
         <v>-2911010.235727146</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J522" t="n">
-        <v>47.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
@@ -17651,1138 +17647,964 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="n">
+        <v>1</v>
+      </c>
+      <c r="M523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
         <v>47.3</v>
       </c>
-      <c r="K523" t="inlineStr">
+      <c r="C524" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D524" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E524" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="F524" t="n">
+        <v>3847.4546</v>
+      </c>
+      <c r="G524" t="n">
+        <v>-2925594.063727146</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="n">
+        <v>1</v>
+      </c>
+      <c r="M524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C525" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D525" t="n">
+        <v>48</v>
+      </c>
+      <c r="E525" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="F525" t="n">
+        <v>17421.9091</v>
+      </c>
+      <c r="G525" t="n">
+        <v>-2908172.154627146</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="n">
+        <v>1</v>
+      </c>
+      <c r="M525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C526" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D526" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E526" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F526" t="n">
+        <v>545.9138</v>
+      </c>
+      <c r="G526" t="n">
+        <v>-2908718.068427146</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
+      <c r="M526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C527" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D527" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E527" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F527" t="n">
+        <v>8343.0743</v>
+      </c>
+      <c r="G527" t="n">
+        <v>-2900374.994127146</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="n">
+        <v>1</v>
+      </c>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C528" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D528" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E528" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F528" t="n">
+        <v>4479.342</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-2904854.336127147</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="n">
+        <v>1</v>
+      </c>
+      <c r="M528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C529" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D529" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E529" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="F529" t="n">
+        <v>52810.3753</v>
+      </c>
+      <c r="G529" t="n">
+        <v>-2957664.711427147</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="n">
+        <v>1</v>
+      </c>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C530" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D530" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E530" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F530" t="n">
+        <v>146851.3065</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-3104516.017927147</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C531" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D531" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E531" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F531" t="n">
+        <v>16593.2876</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-3104516.017927147</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C532" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D532" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E532" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F532" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G532" t="n">
+        <v>-3104516.017927147</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C533" t="n">
+        <v>47</v>
+      </c>
+      <c r="D533" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E533" t="n">
+        <v>47</v>
+      </c>
+      <c r="F533" t="n">
+        <v>103545.3628</v>
+      </c>
+      <c r="G533" t="n">
+        <v>-3208061.380727147</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="n">
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C534" t="n">
+        <v>47</v>
+      </c>
+      <c r="D534" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E534" t="n">
+        <v>47</v>
+      </c>
+      <c r="F534" t="n">
+        <v>39383.8319</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-3208061.380727147</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="n">
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C535" t="n">
+        <v>47</v>
+      </c>
+      <c r="D535" t="n">
+        <v>47</v>
+      </c>
+      <c r="E535" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F535" t="n">
+        <v>625102.9634</v>
+      </c>
+      <c r="G535" t="n">
+        <v>-3208061.380727147</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>47</v>
+      </c>
+      <c r="C536" t="n">
+        <v>47</v>
+      </c>
+      <c r="D536" t="n">
+        <v>47</v>
+      </c>
+      <c r="E536" t="n">
+        <v>47</v>
+      </c>
+      <c r="F536" t="n">
+        <v>3699.4059</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-3208061.380727147</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C537" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D537" t="n">
+        <v>47</v>
+      </c>
+      <c r="E537" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F537" t="n">
+        <v>36599.5667</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-3244660.947427147</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C538" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D538" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E538" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F538" t="n">
+        <v>6593.878</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-3244660.947427147</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C539" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D539" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E539" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1124.7801</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-3244660.947427147</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C540" t="n">
+        <v>47</v>
+      </c>
+      <c r="D540" t="n">
+        <v>47</v>
+      </c>
+      <c r="E540" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F540" t="n">
+        <v>32600</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-3212060.947427147</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C541" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D541" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E541" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F541" t="n">
+        <v>9412.9324</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-3221473.879827146</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C542" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D542" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E542" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F542" t="n">
+        <v>156703.5091</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-3378177.388927146</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C543" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D543" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E543" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F543" t="n">
+        <v>2153</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-3376024.388927146</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C544" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D544" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E544" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F544" t="n">
+        <v>40973.9171</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-3416998.306027147</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C545" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D545" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="E545" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F545" t="n">
+        <v>103722.1234</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-3520720.429427146</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C546" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D546" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="E546" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F546" t="n">
+        <v>73842.0834</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-3594562.512827146</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C547" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D547" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E547" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F547" t="n">
+        <v>37234.4582</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-3557328.054627146</v>
+      </c>
+      <c r="H547" t="n">
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J547" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C548" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D548" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E548" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F548" t="n">
+        <v>7286.6588</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-3557328.054627146</v>
+      </c>
+      <c r="H548" t="n">
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J548" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C549" t="n">
+        <v>46</v>
+      </c>
+      <c r="D549" t="n">
+        <v>46</v>
+      </c>
+      <c r="E549" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F549" t="n">
+        <v>7624.7058</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-3549703.348827146</v>
+      </c>
+      <c r="H549" t="n">
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J549" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>46</v>
+      </c>
+      <c r="C550" t="n">
+        <v>46</v>
+      </c>
+      <c r="D550" t="n">
+        <v>46</v>
+      </c>
+      <c r="E550" t="n">
+        <v>46</v>
+      </c>
+      <c r="F550" t="n">
+        <v>85.3305</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-3549703.348827146</v>
+      </c>
+      <c r="H550" t="n">
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>46</v>
+      </c>
+      <c r="J550" t="n">
+        <v>46</v>
+      </c>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>46</v>
+      </c>
+      <c r="C551" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D551" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E551" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F551" t="n">
+        <v>80764.8281</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-3468938.520727146</v>
+      </c>
+      <c r="H551" t="n">
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>46</v>
+      </c>
+      <c r="J551" t="n">
+        <v>46</v>
+      </c>
+      <c r="K551" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L523" t="n">
-        <v>1</v>
-      </c>
-      <c r="M523" t="inlineStr"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C524" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="D524" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="E524" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="F524" t="n">
-        <v>3847.4546</v>
-      </c>
-      <c r="G524" t="n">
-        <v>-2925594.063727146</v>
-      </c>
-      <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L524" t="n">
-        <v>1</v>
-      </c>
-      <c r="M524" t="inlineStr"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C525" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D525" t="n">
-        <v>48</v>
-      </c>
-      <c r="E525" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="F525" t="n">
-        <v>17421.9091</v>
-      </c>
-      <c r="G525" t="n">
-        <v>-2908172.154627146</v>
-      </c>
-      <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L525" t="n">
-        <v>1</v>
-      </c>
-      <c r="M525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C526" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D526" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E526" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F526" t="n">
-        <v>545.9138</v>
-      </c>
-      <c r="G526" t="n">
-        <v>-2908718.068427146</v>
-      </c>
-      <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
-      <c r="M526" t="inlineStr"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C527" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D527" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E527" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F527" t="n">
-        <v>8343.0743</v>
-      </c>
-      <c r="G527" t="n">
-        <v>-2900374.994127146</v>
-      </c>
-      <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L527" t="n">
-        <v>1</v>
-      </c>
-      <c r="M527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C528" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D528" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E528" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F528" t="n">
-        <v>4479.342</v>
-      </c>
-      <c r="G528" t="n">
-        <v>-2904854.336127147</v>
-      </c>
-      <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
-      <c r="M528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C529" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="D529" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E529" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="F529" t="n">
-        <v>52810.3753</v>
-      </c>
-      <c r="G529" t="n">
-        <v>-2957664.711427147</v>
-      </c>
-      <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
-      <c r="M529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C530" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D530" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="E530" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F530" t="n">
-        <v>146851.3065</v>
-      </c>
-      <c r="G530" t="n">
-        <v>-3104516.017927147</v>
-      </c>
-      <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J530" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C531" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D531" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="E531" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F531" t="n">
-        <v>16593.2876</v>
-      </c>
-      <c r="G531" t="n">
-        <v>-3104516.017927147</v>
-      </c>
-      <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J531" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
-      <c r="M531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C532" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D532" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E532" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F532" t="n">
-        <v>11500</v>
-      </c>
-      <c r="G532" t="n">
-        <v>-3104516.017927147</v>
-      </c>
-      <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J532" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L532" t="n">
-        <v>1</v>
-      </c>
-      <c r="M532" t="inlineStr"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C533" t="n">
-        <v>47</v>
-      </c>
-      <c r="D533" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E533" t="n">
-        <v>47</v>
-      </c>
-      <c r="F533" t="n">
-        <v>103545.3628</v>
-      </c>
-      <c r="G533" t="n">
-        <v>-3208061.380727147</v>
-      </c>
-      <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J533" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C534" t="n">
-        <v>47</v>
-      </c>
-      <c r="D534" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E534" t="n">
-        <v>47</v>
-      </c>
-      <c r="F534" t="n">
-        <v>39383.8319</v>
-      </c>
-      <c r="G534" t="n">
-        <v>-3208061.380727147</v>
-      </c>
-      <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>47</v>
-      </c>
-      <c r="J534" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C535" t="n">
-        <v>47</v>
-      </c>
-      <c r="D535" t="n">
-        <v>47</v>
-      </c>
-      <c r="E535" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F535" t="n">
-        <v>625102.9634</v>
-      </c>
-      <c r="G535" t="n">
-        <v>-3208061.380727147</v>
-      </c>
-      <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>47</v>
-      </c>
-      <c r="J535" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>47</v>
-      </c>
-      <c r="C536" t="n">
-        <v>47</v>
-      </c>
-      <c r="D536" t="n">
-        <v>47</v>
-      </c>
-      <c r="E536" t="n">
-        <v>47</v>
-      </c>
-      <c r="F536" t="n">
-        <v>3699.4059</v>
-      </c>
-      <c r="G536" t="n">
-        <v>-3208061.380727147</v>
-      </c>
-      <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C537" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D537" t="n">
-        <v>47</v>
-      </c>
-      <c r="E537" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F537" t="n">
-        <v>36599.5667</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-3244660.947427147</v>
-      </c>
-      <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C538" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D538" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E538" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F538" t="n">
-        <v>6593.878</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-3244660.947427147</v>
-      </c>
-      <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C539" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D539" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E539" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F539" t="n">
-        <v>1124.7801</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-3244660.947427147</v>
-      </c>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C540" t="n">
-        <v>47</v>
-      </c>
-      <c r="D540" t="n">
-        <v>47</v>
-      </c>
-      <c r="E540" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F540" t="n">
-        <v>32600</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-3212060.947427147</v>
-      </c>
-      <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C541" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D541" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E541" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F541" t="n">
-        <v>9412.9324</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-3221473.879827146</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C542" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D542" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E542" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F542" t="n">
-        <v>156703.5091</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-3378177.388927146</v>
-      </c>
-      <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="J542" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="C543" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D543" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E543" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F543" t="n">
-        <v>2153</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-3376024.388927146</v>
-      </c>
-      <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J543" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C544" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D544" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E544" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F544" t="n">
-        <v>40973.9171</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-3416998.306027147</v>
-      </c>
-      <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J544" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="C545" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="D545" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="E545" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="F545" t="n">
-        <v>103722.1234</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-3520720.429427146</v>
-      </c>
-      <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J545" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="C546" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="D546" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="E546" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="F546" t="n">
-        <v>73842.0834</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-3594562.512827146</v>
-      </c>
-      <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J546" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="C547" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="D547" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E547" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F547" t="n">
-        <v>37234.4582</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-3557328.054627146</v>
-      </c>
-      <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="J547" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="C548" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="D548" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E548" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F548" t="n">
-        <v>7286.6588</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-3557328.054627146</v>
-      </c>
-      <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="J548" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="C549" t="n">
-        <v>46</v>
-      </c>
-      <c r="D549" t="n">
-        <v>46</v>
-      </c>
-      <c r="E549" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F549" t="n">
-        <v>7624.7058</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-3549703.348827146</v>
-      </c>
-      <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="J549" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>46</v>
-      </c>
-      <c r="C550" t="n">
-        <v>46</v>
-      </c>
-      <c r="D550" t="n">
-        <v>46</v>
-      </c>
-      <c r="E550" t="n">
-        <v>46</v>
-      </c>
-      <c r="F550" t="n">
-        <v>85.3305</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-3549703.348827146</v>
-      </c>
-      <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>46</v>
-      </c>
-      <c r="J550" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>46</v>
-      </c>
-      <c r="C551" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="D551" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E551" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="F551" t="n">
-        <v>80764.8281</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-3468938.520727146</v>
-      </c>
-      <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>46</v>
-      </c>
-      <c r="J551" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18817,7 +18639,7 @@
         <v>46.2</v>
       </c>
       <c r="J552" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -18858,7 +18680,7 @@
         <v>46.7</v>
       </c>
       <c r="J553" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -18899,7 +18721,7 @@
         <v>45.5</v>
       </c>
       <c r="J554" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -18934,13 +18756,11 @@
         <v>-3319259.847427146</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -18975,13 +18795,11 @@
         <v>-3320560.180227146</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>46.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19016,13 +18834,11 @@
         <v>-3386569.844227146</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>45.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19063,7 +18879,7 @@
         <v>45.5</v>
       </c>
       <c r="J558" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19104,7 +18920,7 @@
         <v>45.5</v>
       </c>
       <c r="J559" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19145,7 +18961,7 @@
         <v>45.6</v>
       </c>
       <c r="J560" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19186,7 +19002,7 @@
         <v>45.4</v>
       </c>
       <c r="J561" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19227,7 +19043,7 @@
         <v>45.5</v>
       </c>
       <c r="J562" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19268,7 +19084,7 @@
         <v>45</v>
       </c>
       <c r="J563" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19309,7 +19125,7 @@
         <v>45.6</v>
       </c>
       <c r="J564" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19344,13 +19160,11 @@
         <v>-3094800.306127146</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>47.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19385,13 +19199,11 @@
         <v>-3039206.833927146</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>45.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19426,13 +19238,11 @@
         <v>-3039862.809927145</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>45.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19467,13 +19277,11 @@
         <v>-3006800.245427146</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>45.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -19508,13 +19316,11 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -19549,13 +19355,11 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>45.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -19590,13 +19394,11 @@
         <v>-3095963.499127146</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>45.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -19631,13 +19433,11 @@
         <v>-3028126.431227146</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -19672,13 +19472,11 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>46.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -19713,13 +19511,11 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>46.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -19754,13 +19550,11 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>46.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -19795,13 +19589,11 @@
         <v>-3048207.708227146</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>46.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -19836,13 +19628,11 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -19877,13 +19667,11 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>46.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -19918,13 +19706,11 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>46.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -19959,13 +19745,11 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>46.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20000,13 +19784,11 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>46.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20041,13 +19823,11 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>45.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20086,7 +19866,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20121,13 +19901,11 @@
         <v>-2959014.360027147</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>45.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20166,7 +19944,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20205,7 +19983,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20244,7 +20022,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20283,7 +20061,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20322,7 +20100,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20361,7 +20139,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20400,7 +20178,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20439,7 +20217,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20478,7 +20256,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20517,7 +20295,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20556,7 +20334,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20591,13 +20369,11 @@
         <v>-3077283.383027147</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>45.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20632,13 +20408,11 @@
         <v>-3002935.872127146</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>45.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20673,13 +20447,11 @@
         <v>-2979628.28592025</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>46.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20718,7 +20490,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20753,13 +20525,11 @@
         <v>-2979852.01342025</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="n">
         <v>46</v>
-      </c>
-      <c r="J600" t="n">
-        <v>47.3</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20794,13 +20564,11 @@
         <v>-2919021.01342025</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>46.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20839,7 +20607,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -20878,7 +20646,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -20917,7 +20685,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -20956,7 +20724,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -20995,7 +20763,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21034,7 +20802,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21073,7 +20841,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21108,19 +20876,19 @@
         <v>-2633190.26192025</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>47.3</v>
+        <v>46</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L609" t="n">
-        <v>1</v>
+        <v>1.047173913043478</v>
       </c>
       <c r="M609" t="inlineStr"/>
     </row>
@@ -21147,17 +20915,11 @@
         <v>-2643190.26192025</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21186,17 +20948,11 @@
         <v>-2500866.22902025</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21225,17 +20981,11 @@
         <v>-2750535.87922025</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21264,17 +21014,11 @@
         <v>-2814679.022420249</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21306,14 +21050,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21345,14 +21083,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21384,14 +21116,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21420,17 +21146,11 @@
         <v>-2871235.27532025</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21462,14 +21182,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21501,14 +21215,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21540,14 +21248,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21579,14 +21281,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21618,14 +21314,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21654,17 +21344,11 @@
         <v>-2822615.46572025</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21696,14 +21380,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21735,14 +21413,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21774,14 +21446,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21813,14 +21479,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21852,14 +21512,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21891,14 +21545,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21930,14 +21578,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21969,14 +21611,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22008,14 +21644,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22044,19 +21674,11 @@
         <v>-2870813.84032025</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J633" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22088,14 +21710,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22127,14 +21743,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22166,14 +21776,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22205,14 +21809,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22244,14 +21842,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22283,14 +21875,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22319,17 +21905,11 @@
         <v>-2731290.48212025</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22358,17 +21938,11 @@
         <v>-2603592.85832025</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22397,17 +21971,11 @@
         <v>-2617797.819305876</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22436,17 +22004,11 @@
         <v>-2617797.819305876</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22475,17 +22037,11 @@
         <v>-2620285.733105876</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22514,17 +22070,11 @@
         <v>-2619785.733105876</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22553,17 +22103,11 @@
         <v>-2590962.104305876</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22592,17 +22136,11 @@
         <v>-2576506.542684521</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22631,17 +22169,11 @@
         <v>-2664906.542684521</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22670,17 +22202,11 @@
         <v>-2686706.542684521</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22709,17 +22235,11 @@
         <v>-2686706.542684521</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22748,17 +22268,11 @@
         <v>-2723106.542684521</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22787,17 +22301,11 @@
         <v>-2723082.972984521</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22829,14 +22337,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22868,14 +22370,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22907,14 +22403,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22946,14 +22436,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22985,14 +22469,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23024,14 +22502,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23063,14 +22535,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23102,14 +22568,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23141,14 +22601,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23180,14 +22634,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23219,14 +22667,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23258,14 +22700,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23297,14 +22733,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23336,14 +22766,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23375,14 +22799,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23414,14 +22832,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23453,14 +22865,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23492,14 +22898,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23531,14 +22931,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23570,14 +22964,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23609,14 +22997,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23648,14 +23030,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23687,14 +23063,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23726,14 +23096,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23765,14 +23129,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23804,14 +23162,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23843,14 +23195,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23879,19 +23225,11 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J680" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23920,19 +23258,11 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J681" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23961,19 +23291,11 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J682" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24002,19 +23324,11 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J683" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24043,19 +23357,11 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J684" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24084,19 +23390,11 @@
         <v>-2893231.139080379</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J685" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24125,19 +23423,11 @@
         <v>-2881334.718880379</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="J686" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24166,19 +23456,11 @@
         <v>-2881334.718880379</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>47</v>
-      </c>
-      <c r="J687" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24207,19 +23489,11 @@
         <v>-2871334.718880379</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>47</v>
-      </c>
-      <c r="J688" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24251,14 +23525,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24290,14 +23558,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24329,14 +23591,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24368,14 +23624,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24407,14 +23657,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24446,14 +23690,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24485,14 +23723,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24524,14 +23756,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24563,14 +23789,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24599,19 +23819,11 @@
         <v>-2890991.228480379</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J698" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24643,14 +23855,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24682,14 +23888,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24721,14 +23921,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24760,14 +23954,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24799,14 +23987,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24838,14 +24020,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24877,14 +24053,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24916,14 +24086,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24955,14 +24119,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24994,14 +24152,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25033,14 +24185,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25072,14 +24218,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25111,20 +24251,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
       <c r="M711" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-31 BackTest LAMB.xlsx
@@ -1870,7 +1870,7 @@
         <v>-2324742.199207677</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2325242.199207677</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2187372.427207677</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2384652.874132167</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3023828.379432166</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2941694.009232166</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2956863.847632166</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2946256.539332166</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3022852.067732166</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2429884.284732167</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1744017.294659882</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1687497.136659882</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1969091.718859882</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1969091.718859882</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2006237.014959882</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1936432.642626893</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1936432.642626893</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1939788.460014418</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1988798.808514418</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1952127.942714418</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1862024.860214418</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1821424.860214418</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1801544.043896051</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2635344.278496051</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2717387.277696051</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2874097.712296051</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3127377.925396051</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3127377.925396051</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3113716.293396051</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3143494.482296051</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3143494.482296051</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-2751703.13539605</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2736009.56869605</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1700052.057154054</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2361809.96150457</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1400848.111966444</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1305325.165266444</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1622522.887366444</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1728799.396266444</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1742572.972266444</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1773453.003666444</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1777563.313866444</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1758225.634666444</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1664210.620566444</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1599652.967566444</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1601622.763166444</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1603109.551266444</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1686633.034166444</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1727321.949166444</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1864518.212666444</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1835780.406666443</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2416005.941503065</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2438110.654103065</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2414788.408803065</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2412131.776603065</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2414631.776603065</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2414631.776603065</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2425372.868403065</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2396607.832403066</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2400137.832403066</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2400137.832403066</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-2410670.457503065</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-2415687.347503065</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-2416083.048503065</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2416073.048503065</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-2139114.229628381</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-2139114.229628381</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-2181407.609928381</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-2187547.625528381</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -18436,14 +18436,10 @@
         <v>-3557328.054627146</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="J547" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
@@ -18473,19 +18469,11 @@
         <v>-3557328.054627146</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="J548" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18514,19 +18502,11 @@
         <v>-3549703.348827146</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="J549" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18555,14 +18535,10 @@
         <v>-3549703.348827146</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>46</v>
-      </c>
-      <c r="J550" t="n">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
@@ -18592,341 +18568,287 @@
         <v>-3468938.520727146</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C552" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D552" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E552" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F552" t="n">
+        <v>117017.372</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-3351921.148727146</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C553" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="D553" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="E553" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F553" t="n">
+        <v>182800.8908</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-3534722.039527146</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C554" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D554" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="E554" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F554" t="n">
+        <v>212673.1921</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-3322048.847427146</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
         <v>46</v>
       </c>
-      <c r="J551" t="n">
+      <c r="C555" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D555" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E555" t="n">
         <v>46</v>
       </c>
-      <c r="K551" t="inlineStr">
+      <c r="F555" t="n">
+        <v>2789</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-3319259.847427146</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="n">
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C556" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="D556" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E556" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F556" t="n">
+        <v>1300.3328</v>
+      </c>
+      <c r="G556" t="n">
+        <v>-3320560.180227146</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="C557" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="D557" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E557" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F557" t="n">
+        <v>66009.664</v>
+      </c>
+      <c r="G557" t="n">
+        <v>-3386569.844227146</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="n">
+        <v>1</v>
+      </c>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C558" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="D558" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E558" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F558" t="n">
+        <v>20331.2797</v>
+      </c>
+      <c r="G558" t="n">
+        <v>-3386569.844227146</v>
+      </c>
+      <c r="H558" t="n">
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J558" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C559" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D559" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="E559" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F559" t="n">
+        <v>52334.8837</v>
+      </c>
+      <c r="G559" t="n">
+        <v>-3334234.960527146</v>
+      </c>
+      <c r="H559" t="n">
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J559" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K559" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="C552" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D552" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E552" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="F552" t="n">
-        <v>117017.372</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-3351921.148727146</v>
-      </c>
-      <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J552" t="n">
-        <v>46</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="C553" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="D553" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="E553" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="F553" t="n">
-        <v>182800.8908</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-3534722.039527146</v>
-      </c>
-      <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="J553" t="n">
-        <v>46</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="C554" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="D554" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="E554" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="F554" t="n">
-        <v>212673.1921</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-3322048.847427146</v>
-      </c>
-      <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="J554" t="n">
-        <v>46</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>46</v>
-      </c>
-      <c r="C555" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D555" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E555" t="n">
-        <v>46</v>
-      </c>
-      <c r="F555" t="n">
-        <v>2789</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-3319259.847427146</v>
-      </c>
-      <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>46</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="C556" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="D556" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E556" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="F556" t="n">
-        <v>1300.3328</v>
-      </c>
-      <c r="G556" t="n">
-        <v>-3320560.180227146</v>
-      </c>
-      <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>46</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
-      <c r="M556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="C557" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="D557" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E557" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="F557" t="n">
-        <v>66009.664</v>
-      </c>
-      <c r="G557" t="n">
-        <v>-3386569.844227146</v>
-      </c>
-      <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>46</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L557" t="n">
-        <v>1</v>
-      </c>
-      <c r="M557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="C558" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="D558" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="E558" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="F558" t="n">
-        <v>20331.2797</v>
-      </c>
-      <c r="G558" t="n">
-        <v>-3386569.844227146</v>
-      </c>
-      <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="J558" t="n">
-        <v>46</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
-      <c r="M558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="C559" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="D559" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="E559" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="F559" t="n">
-        <v>52334.8837</v>
-      </c>
-      <c r="G559" t="n">
-        <v>-3334234.960527146</v>
-      </c>
-      <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="J559" t="n">
-        <v>46</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18961,7 +18883,7 @@
         <v>45.6</v>
       </c>
       <c r="J560" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19002,7 +18924,7 @@
         <v>45.4</v>
       </c>
       <c r="J561" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19043,7 +18965,7 @@
         <v>45.5</v>
       </c>
       <c r="J562" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19084,7 +19006,7 @@
         <v>45</v>
       </c>
       <c r="J563" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19125,7 +19047,7 @@
         <v>45.6</v>
       </c>
       <c r="J564" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19160,11 +19082,13 @@
         <v>-3094800.306127146</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J565" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19199,11 +19123,13 @@
         <v>-3039206.833927146</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>45.5</v>
+      </c>
       <c r="J566" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19238,11 +19164,13 @@
         <v>-3039862.809927145</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>45.7</v>
+      </c>
       <c r="J567" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19277,11 +19205,13 @@
         <v>-3006800.245427146</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>45.5</v>
+      </c>
       <c r="J568" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -19316,11 +19246,13 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>45.6</v>
+      </c>
       <c r="J569" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -19355,11 +19287,13 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>45.7</v>
+      </c>
       <c r="J570" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -19394,11 +19328,13 @@
         <v>-3095963.499127146</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>45.7</v>
+      </c>
       <c r="J571" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -19433,11 +19369,13 @@
         <v>-3028126.431227146</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>45.6</v>
+      </c>
       <c r="J572" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -19472,11 +19410,13 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>46.3</v>
+      </c>
       <c r="J573" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -19511,11 +19451,13 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J574" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -19550,11 +19492,13 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J575" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -19589,11 +19533,13 @@
         <v>-3048207.708227146</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J576" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -19628,11 +19574,13 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>45.6</v>
+      </c>
       <c r="J577" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -19667,11 +19615,13 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J578" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -19706,11 +19656,13 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J579" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -19745,11 +19697,13 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J580" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -19784,11 +19738,13 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J581" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -19823,11 +19779,13 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>45.8</v>
+      </c>
       <c r="J582" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -19862,11 +19820,13 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>45.8</v>
+      </c>
       <c r="J583" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -19901,11 +19861,13 @@
         <v>-2959014.360027147</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>45.8</v>
+      </c>
       <c r="J584" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -19940,11 +19902,13 @@
         <v>-2957111.452727146</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>45.9</v>
+      </c>
       <c r="J585" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -19979,11 +19943,13 @@
         <v>-2896911.452727146</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>46.2</v>
+      </c>
       <c r="J586" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20022,7 +19988,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20061,7 +20027,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20100,7 +20066,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20135,11 +20101,13 @@
         <v>-3022510.127627146</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>45.5</v>
+      </c>
       <c r="J590" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20174,11 +20142,13 @@
         <v>-3038334.952427146</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J591" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20213,11 +20183,13 @@
         <v>-3038334.952427146</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>45.9</v>
+      </c>
       <c r="J592" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20252,11 +20224,13 @@
         <v>-3038334.952427146</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>45.9</v>
+      </c>
       <c r="J593" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20291,11 +20265,13 @@
         <v>-3033012.557727146</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>45.9</v>
+      </c>
       <c r="J594" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20330,11 +20306,13 @@
         <v>-3077283.383027147</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>46.3</v>
+      </c>
       <c r="J595" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20369,11 +20347,13 @@
         <v>-3077283.383027147</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>45.9</v>
+      </c>
       <c r="J596" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20408,11 +20388,13 @@
         <v>-3002935.872127146</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>45.9</v>
+      </c>
       <c r="J597" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20447,11 +20429,13 @@
         <v>-2979628.28592025</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>46.3</v>
+      </c>
       <c r="J598" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20486,11 +20470,13 @@
         <v>-2980282.01342025</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J599" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20525,11 +20511,13 @@
         <v>-2979852.01342025</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>46</v>
+      </c>
       <c r="J600" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20564,11 +20552,13 @@
         <v>-2919021.01342025</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>46.7</v>
+      </c>
       <c r="J601" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20603,11 +20593,13 @@
         <v>-2919021.01342025</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J602" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -20642,11 +20634,13 @@
         <v>-2918013.01342025</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J603" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -20681,11 +20675,13 @@
         <v>-2907185.65242025</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J604" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -20720,11 +20716,13 @@
         <v>-2907185.65242025</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>47.4</v>
+      </c>
       <c r="J605" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -20759,11 +20757,13 @@
         <v>-2798139.07762025</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>47.4</v>
+      </c>
       <c r="J606" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -20876,19 +20876,19 @@
         <v>-2633190.26192025</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L609" t="n">
-        <v>1.047173913043478</v>
+        <v>1</v>
       </c>
       <c r="M609" t="inlineStr"/>
     </row>
@@ -20915,11 +20915,17 @@
         <v>-2643190.26192025</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20948,11 +20954,17 @@
         <v>-2500866.22902025</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20981,11 +20993,17 @@
         <v>-2750535.87922025</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21014,11 +21032,17 @@
         <v>-2814679.022420249</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21050,8 +21074,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21083,8 +21113,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21116,8 +21152,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21146,11 +21188,17 @@
         <v>-2871235.27532025</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21182,8 +21230,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21215,8 +21269,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21248,8 +21308,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21281,8 +21347,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21314,8 +21386,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21344,11 +21422,17 @@
         <v>-2822615.46572025</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21380,8 +21464,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21413,8 +21503,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21446,8 +21542,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21479,8 +21581,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21512,8 +21620,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21545,8 +21659,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21578,8 +21698,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21611,8 +21737,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21644,8 +21776,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21677,8 +21815,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21710,8 +21854,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21743,8 +21893,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21776,8 +21932,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21809,8 +21971,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21842,8 +22010,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21875,8 +22049,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21905,11 +22085,17 @@
         <v>-2731290.48212025</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21938,11 +22124,17 @@
         <v>-2603592.85832025</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21971,11 +22163,17 @@
         <v>-2617797.819305876</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22004,11 +22202,17 @@
         <v>-2617797.819305876</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22037,11 +22241,17 @@
         <v>-2620285.733105876</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22070,11 +22280,17 @@
         <v>-2619785.733105876</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22103,11 +22319,17 @@
         <v>-2590962.104305876</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22136,11 +22358,17 @@
         <v>-2576506.542684521</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22169,11 +22397,17 @@
         <v>-2664906.542684521</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22202,11 +22436,17 @@
         <v>-2686706.542684521</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22235,11 +22475,17 @@
         <v>-2686706.542684521</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22268,11 +22514,17 @@
         <v>-2723106.542684521</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22301,11 +22553,17 @@
         <v>-2723082.972984521</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22337,8 +22595,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22370,8 +22634,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22403,8 +22673,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22436,8 +22712,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22469,8 +22751,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22502,8 +22790,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22535,8 +22829,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22568,8 +22868,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22601,8 +22907,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22634,8 +22946,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22667,8 +22985,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22700,8 +23024,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22733,8 +23063,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22766,8 +23102,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22799,8 +23141,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22832,8 +23180,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22865,8 +23219,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22898,8 +23258,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22931,8 +23297,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22964,8 +23336,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22997,8 +23375,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23030,8 +23414,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23063,8 +23453,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23096,8 +23492,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23129,8 +23531,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23162,8 +23570,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23195,8 +23609,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23228,8 +23648,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23261,8 +23687,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23294,8 +23726,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23327,8 +23765,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23360,8 +23804,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23393,8 +23843,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23426,8 +23882,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23459,8 +23921,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23492,8 +23960,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23525,8 +23999,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23558,8 +24038,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23591,8 +24077,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23624,8 +24116,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23657,8 +24155,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23690,8 +24194,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23723,8 +24233,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23756,8 +24272,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23789,8 +24311,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23822,8 +24350,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23855,8 +24389,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23888,8 +24428,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23921,8 +24467,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23954,8 +24506,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23987,8 +24545,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24020,8 +24584,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24053,8 +24623,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24086,8 +24662,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24119,8 +24701,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24152,8 +24740,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24185,8 +24779,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24218,8 +24818,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24251,8 +24857,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
